--- a/DataNV/Яртим.xlsx
+++ b/DataNV/Яртим.xlsx
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026107 від 25.06.2024</t>
+          <t>Наряд-замовлення ЗНGA026107 від 25.06.2024 11:40:51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -725,7 +725,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -739,12 +739,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026196 від 28.06.2024</t>
+          <t>Наряд-замовлення ЗНGA026196 від 28.06.2024 16:56:51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Заявка</t>
+          <t>Погодження</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -819,7 +819,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026793 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026793 від 29.07.2024 09:55:02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
